--- a/Organization.xlsx
+++ b/Organization.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakkanolla\Documents\GitHubPOM\CARES---Selenium-Automation\src\main\java\Artifacts\TestData\cares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF08E47-EA92-4016-B045-67FB72B0AFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B591F-97CF-40B6-80E5-6BD634947832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ProviderSearch" sheetId="5" r:id="rId1"/>
+    <sheet name="OrganizationProviderSearch" sheetId="5" r:id="rId1"/>
     <sheet name="Organization" sheetId="1" r:id="rId2"/>
     <sheet name="Location" sheetId="6" r:id="rId3"/>
     <sheet name="RelatedPersons" sheetId="8" r:id="rId4"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="175">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -417,9 +417,6 @@
     <t>TOAST_MSG_VERIFY</t>
   </si>
   <si>
-    <t>Test Test</t>
-  </si>
-  <si>
     <t>test@test.com</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
     <t>ADDRESS_ADDRESSLINE2</t>
   </si>
   <si>
+    <t>ADDRESS_SAVE_BTN</t>
+  </si>
+  <si>
     <t>ADDRESS_PROVIDERADDRESSID_VERIFY</t>
   </si>
   <si>
@@ -564,7 +564,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>ADDRESS_SAVE_BTN</t>
+    <t>test test</t>
+  </si>
+  <si>
+    <t>testT4275</t>
   </si>
 </sst>
 </file>
@@ -1024,23 +1027,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24C2794-5B6D-4F29-8B02-BDC10E3B76AF}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1293,16 +1296,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -1432,13 +1435,75 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
     </row>
   </sheetData>
@@ -1449,22 +1514,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59B4CC5-905E-4448-A2B7-A9589A07C40B}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AR2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -1729,6 +1794,140 @@
         <v>41</v>
       </c>
       <c r="AR2" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>32904</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR3" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1740,25 +1939,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C56D96-3B05-49B6-AFB9-04CBE10FBC41}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +2025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -1846,7 +2045,7 @@
         <v>45</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>45</v>
@@ -1882,21 +2081,90 @@
         <v>45</v>
       </c>
       <c r="S2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>126</v>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{09A35511-F17C-40AB-B6D9-D40175E9107C}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{76378A26-41E7-4CF9-8754-85F4106484BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1904,23 +2172,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D15ABB-F453-44AD-B312-D359BF7EF09C}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,22 +2201,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>173</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>132</v>
@@ -1985,7 +2255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -2047,6 +2317,71 @@
         <v>41</v>
       </c>
       <c r="U2" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="24">
+        <v>32904</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2063,9 +2398,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="33.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -2129,22 +2464,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D8" s="2"/>
     </row>
   </sheetData>
@@ -2160,21 +2495,21 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2544,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2241,22 +2576,22 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
     </row>
   </sheetData>
@@ -2272,20 +2607,20 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2655,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2352,22 +2687,22 @@
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
     </row>
   </sheetData>
@@ -2647,4 +2982,10 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Organization.xlsx
+++ b/Organization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B591F-97CF-40B6-80E5-6BD634947832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E65019-83B6-496F-820C-168EFC2E404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrganizationProviderSearch" sheetId="5" r:id="rId1"/>
@@ -567,7 +567,7 @@
     <t>test test</t>
   </si>
   <si>
-    <t>testT4275</t>
+    <t>testT4275_1</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1435,23 +1435,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3" t="s">
@@ -1460,43 +1460,43 @@
       <c r="H3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,13 +1798,13 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1813,106 +1813,106 @@
       <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
         <v>45</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" t="s">
         <v>104</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM3" s="9" t="s">
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" t="s">
         <v>41</v>
       </c>
       <c r="AN3" s="24" t="s">
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C56D96-3B05-49B6-AFB9-04CBE10FBC41}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2094,77 +2094,77 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
         <v>45</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="9" t="s">
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{09A35511-F17C-40AB-B6D9-D40175E9107C}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{76378A26-41E7-4CF9-8754-85F4106484BA}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{51C1B438-D806-4B04-990A-22BD1AC9DBA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2321,13 +2321,13 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2336,37 +2336,37 @@
       <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" t="s">
         <v>146</v>
       </c>
       <c r="Q3" s="24" t="s">
@@ -2712,6 +2712,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -2928,7 +2937,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -2938,16 +2947,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81A0C56C-B348-40F3-BF85-1614B9757A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6F23E67-6B47-4045-BC95-20F5A0F26A18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2966,7 +2974,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4354150A-E2F3-461A-8D8E-C80F6A2CFB51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2976,14 +2984,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81A0C56C-B348-40F3-BF85-1614B9757A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
